--- a/a faire.xlsx
+++ b/a faire.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="119">
   <si>
     <t>Membre</t>
   </si>
@@ -358,9 +359,6 @@
     <t>vente et achat crypto</t>
   </si>
   <si>
-    <t>affichage portefeuille et fond</t>
-  </si>
-  <si>
     <t>COURS CRYPTO</t>
   </si>
   <si>
@@ -400,17 +398,74 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">form </t>
-  </si>
-  <si>
     <t>details portefeuille et fond de l utilisateur</t>
+  </si>
+  <si>
+    <t>VIEW AUTHENTIFICATION</t>
+  </si>
+  <si>
+    <t>form(date, list a vendre ou a acheter)</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Cours_crypto</t>
+  </si>
+  <si>
+    <t>inscription form (input: email,mdp)</t>
+  </si>
+  <si>
+    <t>authentification form (input: email,mdp)</t>
+  </si>
+  <si>
+    <t>validerPIN form (input: pin)</t>
+  </si>
+  <si>
+    <t>portefeuille</t>
+  </si>
+  <si>
+    <t>RESTE A FAIRE</t>
+  </si>
+  <si>
+    <t>TEMPS ESTIME (mn)</t>
+  </si>
+  <si>
+    <t>TEMPS PASSE (mn)</t>
+  </si>
+  <si>
+    <t>AVANCEMENT</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Portefeuille</t>
+  </si>
+  <si>
+    <t>Fond</t>
+  </si>
+  <si>
+    <t>SOMME TEMPS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,16 +494,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -539,11 +607,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -553,6 +659,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -566,13 +713,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,9 +726,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,8 +738,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -898,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,14 +1056,17 @@
     <col min="4" max="4" width="72.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="9" width="29.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -927,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -935,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -943,8 +1090,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -971,817 +1120,1435 @@
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="2" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="16"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="6" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="6" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="2" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="9" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="2" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="2" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="2" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="2" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="2" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="2" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D44" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="5" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="9" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="12">
+        <v>15</v>
+      </c>
+      <c r="H47" s="12">
+        <v>15</v>
+      </c>
+      <c r="I47" s="12">
+        <f>G47-H47</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <f>H47/(H47+I47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="C48" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="12">
+        <v>10</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" ref="I48:I65" si="0">G48-H48</f>
+        <v>10</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" ref="J48:J65" si="1">H48/(H48+I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="12">
+        <v>15</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="12">
+        <v>20</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J50" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="17" t="s">
+      <c r="E51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="12">
+        <v>15</v>
+      </c>
+      <c r="H51" s="12">
+        <v>10</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J51" s="16">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="2"/>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="12">
+        <v>15</v>
+      </c>
+      <c r="H52" s="12">
+        <v>15</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="2"/>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="12">
+        <v>30</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="12">
+        <v>15</v>
+      </c>
+      <c r="H54" s="12">
+        <v>15</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="2"/>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="12">
+        <v>30</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J55" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="9" t="s">
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="12">
+        <v>15</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="28" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="12">
+        <v>15</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="12">
+        <v>15</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="12">
+        <v>15</v>
+      </c>
+      <c r="H59" s="12">
+        <v>10</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="12">
+        <v>15</v>
+      </c>
+      <c r="H60" s="12">
+        <v>15</v>
+      </c>
+      <c r="I60" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="25">
+        <v>50</v>
+      </c>
+      <c r="H61" s="25">
+        <v>50</v>
+      </c>
+      <c r="I61" s="25">
+        <f>G61-H61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="30"/>
+      <c r="B64" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="12">
+        <v>30</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J64" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="C65" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="25">
+        <v>30</v>
+      </c>
+      <c r="H65" s="25">
+        <v>30</v>
+      </c>
+      <c r="I65" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A50:A58"/>
+  <mergeCells count="40">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A51:A58"/>
     <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="G65:G67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <f>Feuil1!G65+Feuil1!G64+Feuil1!G57+Feuil1!G58+Feuil1!G50</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f>Feuil1!G61+Feuil1!G60+Feuil1!G59</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>Feuil1!G47+Feuil1!G48+Feuil1!G49</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <f>Feuil1!G52+Feuil1!G53+Feuil1!G54+Feuil1!G55+Feuil1!G56</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <f>+B2+B3+B4+B5</f>
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>